--- a/calories_data.xlsx
+++ b/calories_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andri\Desktop\My_Calories project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57095CF-E206-4687-9569-9E38074EC075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002EF424-1718-4081-83FA-7D2DAB6902A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="2670" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calories" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="10">
   <si>
     <t>user_id</t>
   </si>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,17 +105,17 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,8 +131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EFB1D05-2A7E-437F-873A-58F2629997C9}" name="Calories_table" displayName="Calories_table" ref="A1:H36" totalsRowShown="0">
-  <autoFilter ref="A1:H36" xr:uid="{0EFB1D05-2A7E-437F-873A-58F2629997C9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EFB1D05-2A7E-437F-873A-58F2629997C9}" name="Calories_table" displayName="Calories_table" ref="A1:H67" totalsRowShown="0">
+  <autoFilter ref="A1:H67" xr:uid="{0EFB1D05-2A7E-437F-873A-58F2629997C9}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{701F41F5-0770-4CF4-9E9E-B7DA7DFA21FF}" name="id"/>
     <tableColumn id="2" xr3:uid="{D11250D4-480B-4B71-9F29-09B53D0BD64F}" name="user_id"/>
@@ -148,8 +148,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{465EBEA6-7E17-4B77-A4FA-142644E3BB1F}" name="Weight_table" displayName="Weight_table" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{465EBEA6-7E17-4B77-A4FA-142644E3BB1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{465EBEA6-7E17-4B77-A4FA-142644E3BB1F}" name="Weight_table" displayName="Weight_table" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{465EBEA6-7E17-4B77-A4FA-142644E3BB1F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{35FEAEFC-921E-48EB-A2B3-2A7E8A66D965}" name="id"/>
     <tableColumn id="2" xr3:uid="{8E23D5B6-DF0B-485E-B6A1-8367A49633DE}" name="user_id"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,6 +1374,760 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45733</v>
+      </c>
+      <c r="E37">
+        <v>1100</v>
+      </c>
+      <c r="F37">
+        <v>450</v>
+      </c>
+      <c r="G37">
+        <v>800</v>
+      </c>
+      <c r="H37">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45734</v>
+      </c>
+      <c r="E38">
+        <v>450</v>
+      </c>
+      <c r="F38">
+        <v>1100</v>
+      </c>
+      <c r="G38">
+        <v>800</v>
+      </c>
+      <c r="H38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45735</v>
+      </c>
+      <c r="E39">
+        <v>900</v>
+      </c>
+      <c r="F39">
+        <v>700</v>
+      </c>
+      <c r="G39">
+        <v>700</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45736</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>750</v>
+      </c>
+      <c r="G40">
+        <v>1250</v>
+      </c>
+      <c r="H40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45737</v>
+      </c>
+      <c r="E41">
+        <v>550</v>
+      </c>
+      <c r="F41">
+        <v>1100</v>
+      </c>
+      <c r="G41">
+        <v>600</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45738</v>
+      </c>
+      <c r="E42">
+        <v>800</v>
+      </c>
+      <c r="F42">
+        <v>500</v>
+      </c>
+      <c r="G42">
+        <v>350</v>
+      </c>
+      <c r="H42">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45739</v>
+      </c>
+      <c r="E43">
+        <v>800</v>
+      </c>
+      <c r="F43">
+        <v>800</v>
+      </c>
+      <c r="G43">
+        <v>350</v>
+      </c>
+      <c r="H43">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45740</v>
+      </c>
+      <c r="E44">
+        <v>700</v>
+      </c>
+      <c r="F44">
+        <v>700</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="H44">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45741</v>
+      </c>
+      <c r="E45">
+        <v>950</v>
+      </c>
+      <c r="F45">
+        <v>900</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45742</v>
+      </c>
+      <c r="E46">
+        <v>1100</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>700</v>
+      </c>
+      <c r="H46">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45743</v>
+      </c>
+      <c r="E47">
+        <v>950</v>
+      </c>
+      <c r="F47">
+        <v>900</v>
+      </c>
+      <c r="G47">
+        <v>700</v>
+      </c>
+      <c r="H47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45744</v>
+      </c>
+      <c r="E48">
+        <v>900</v>
+      </c>
+      <c r="F48">
+        <v>700</v>
+      </c>
+      <c r="G48">
+        <v>600</v>
+      </c>
+      <c r="H48">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45745</v>
+      </c>
+      <c r="E49">
+        <v>500</v>
+      </c>
+      <c r="F49">
+        <v>350</v>
+      </c>
+      <c r="G49">
+        <v>800</v>
+      </c>
+      <c r="H49">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45746</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>500</v>
+      </c>
+      <c r="G50">
+        <v>500</v>
+      </c>
+      <c r="H50">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45747</v>
+      </c>
+      <c r="E51">
+        <v>700</v>
+      </c>
+      <c r="F51">
+        <v>600</v>
+      </c>
+      <c r="G51">
+        <v>700</v>
+      </c>
+      <c r="H51">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45748</v>
+      </c>
+      <c r="E52">
+        <v>800</v>
+      </c>
+      <c r="F52">
+        <v>1000</v>
+      </c>
+      <c r="G52">
+        <v>700</v>
+      </c>
+      <c r="H52">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45749</v>
+      </c>
+      <c r="E53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <v>700</v>
+      </c>
+      <c r="G53">
+        <v>900</v>
+      </c>
+      <c r="H53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45750</v>
+      </c>
+      <c r="E54">
+        <v>950</v>
+      </c>
+      <c r="F54">
+        <v>550</v>
+      </c>
+      <c r="G54">
+        <v>800</v>
+      </c>
+      <c r="H54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45751</v>
+      </c>
+      <c r="E55">
+        <v>650</v>
+      </c>
+      <c r="F55">
+        <v>800</v>
+      </c>
+      <c r="G55">
+        <v>600</v>
+      </c>
+      <c r="H55">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45752</v>
+      </c>
+      <c r="E56">
+        <v>900</v>
+      </c>
+      <c r="F56">
+        <v>700</v>
+      </c>
+      <c r="G56">
+        <v>600</v>
+      </c>
+      <c r="H56">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45753</v>
+      </c>
+      <c r="E57">
+        <v>900</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>700</v>
+      </c>
+      <c r="H57">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45754</v>
+      </c>
+      <c r="E58">
+        <v>650</v>
+      </c>
+      <c r="F58">
+        <v>600</v>
+      </c>
+      <c r="G58">
+        <v>900</v>
+      </c>
+      <c r="H58">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45755</v>
+      </c>
+      <c r="E59">
+        <v>1300</v>
+      </c>
+      <c r="F59">
+        <v>550</v>
+      </c>
+      <c r="G59">
+        <v>500</v>
+      </c>
+      <c r="H59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45756</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>700</v>
+      </c>
+      <c r="G60">
+        <v>450</v>
+      </c>
+      <c r="H60">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45757</v>
+      </c>
+      <c r="E61">
+        <v>750</v>
+      </c>
+      <c r="F61">
+        <v>400</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45758</v>
+      </c>
+      <c r="E62">
+        <v>600</v>
+      </c>
+      <c r="F62">
+        <v>750</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45759</v>
+      </c>
+      <c r="E63">
+        <v>600</v>
+      </c>
+      <c r="F63">
+        <v>900</v>
+      </c>
+      <c r="G63">
+        <v>700</v>
+      </c>
+      <c r="H63">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45760</v>
+      </c>
+      <c r="E64">
+        <v>1100</v>
+      </c>
+      <c r="F64">
+        <v>600</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45761</v>
+      </c>
+      <c r="E65">
+        <v>500</v>
+      </c>
+      <c r="F65">
+        <v>600</v>
+      </c>
+      <c r="G65">
+        <v>900</v>
+      </c>
+      <c r="H65">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1384,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89D9FEF-AEF9-4BFE-AB2D-26B4D7FD42F0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,6 +2254,74 @@
         <v>71.099999999999994</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45739</v>
+      </c>
+      <c r="E7">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45746</v>
+      </c>
+      <c r="E8">
+        <v>71.349999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45753</v>
+      </c>
+      <c r="E9">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45760</v>
+      </c>
+      <c r="E10">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
